--- a/data/experiments/sampling/oversampling/oversampling_creation_metrics.xlsx
+++ b/data/experiments/sampling/oversampling/oversampling_creation_metrics.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="imputed" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="train_test_split" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.3" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.4" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.5" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.6" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.7" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.8" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMOTE_0.9" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="imputed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="train_test_split" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test_data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SMOTE_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SMOTE_0.2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SMOTE_0.3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SMOTE_0.4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SMOTE_0.5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SMOTE_0.6" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="SMOTE_0.7" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="SMOTE_0.8" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="SMOTE_0.9" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,16 +540,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006569385528564453</v>
+        <v>0.008700418472290038</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009304116474826319</v>
+        <v>0.002206413916727485</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001798200607299805</v>
+        <v>0.002798652648925781</v>
       </c>
       <c r="E2" t="n">
-        <v>9.925882876706819e-05</v>
+        <v>0.0006955934935206655</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -560,28 +560,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -589,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006497621536254883</v>
+        <v>0.01042385101318359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005065917834100951</v>
+        <v>0.003060577572287707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001741504669189453</v>
+        <v>0.002492237091064453</v>
       </c>
       <c r="E3" t="n">
-        <v>5.801417293270961e-05</v>
+        <v>0.0005580150533434548</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -609,28 +609,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -638,16 +638,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009133720397949218</v>
+        <v>0.01286139488220215</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009190518195153092</v>
+        <v>0.003173972478865479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001918125152587891</v>
+        <v>0.002281808853149414</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001725668602793928</v>
+        <v>0.0001489315657195811</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02100791931152344</v>
+        <v>0.0263875961303711</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002290542706001539</v>
+        <v>0.003852070706564102</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002199459075927735</v>
+        <v>0.002723979949951172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002957329062676338</v>
+        <v>0.0006635755976651824</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -707,28 +707,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9041095890410958</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9087130742708041</v>
+        <v>0.9201967273395846</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005545302235127467</v>
+        <v>0.01719691202642551</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -736,16 +736,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04249634742736817</v>
+        <v>0.05653934478759766</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002178952563291723</v>
+        <v>0.002270336997508745</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002055978775024414</v>
+        <v>0.00251607894897461</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000217992541184728</v>
+        <v>0.0005222417429616955</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8843537414965986</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8972602739726028</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8937377690802348</v>
+        <v>0.9174848317705461</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0185266852027274</v>
+        <v>0.01552912683559489</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -785,16 +785,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2053574085235596</v>
+        <v>0.2694518089294434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01197599091602929</v>
+        <v>0.005923215417548798</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002014350891113281</v>
+        <v>0.003215599060058594</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001286381163249038</v>
+        <v>0.0007308023367613781</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -805,25 +805,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8561643835616438</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8746342372565465</v>
+        <v>0.9012502298216584</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02949032493356358</v>
+        <v>0.01560377970425448</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -925,16 +925,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006142520904541015</v>
+        <v>0.008948659896850586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004420344908819489</v>
+        <v>0.002304244960980028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00230712890625</v>
+        <v>0.003265857696533203</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007277579001435313</v>
+        <v>0.001305012434965869</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -945,28 +945,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006725597381591797</v>
+        <v>0.01011300086975098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005820267282113198</v>
+        <v>0.002018865352114284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001786375045776367</v>
+        <v>0.002616357803344726</v>
       </c>
       <c r="E3" t="n">
-        <v>9.787047533629666e-05</v>
+        <v>0.0005836566171854622</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -994,28 +994,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1023,16 +1023,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009574079513549804</v>
+        <v>0.01249375343322754</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003673324758574147</v>
+        <v>0.003120415982371617</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00183258056640625</v>
+        <v>0.002204036712646484</v>
       </c>
       <c r="E4" t="n">
-        <v>5.6651906817307e-05</v>
+        <v>9.072616094183421e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1043,28 +1043,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.9106913035484464</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.005029934590949916</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01962003707885742</v>
+        <v>0.02438020706176758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002123000979241021</v>
+        <v>0.002197278265080586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00217585563659668</v>
+        <v>0.002833843231201172</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004732649608407251</v>
+        <v>0.0006628423274713837</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1092,25 +1092,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9246575342465754</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9141832075295871</v>
+        <v>0.9228994300422872</v>
       </c>
       <c r="N5" t="n">
-        <v>0.009108254338346358</v>
+        <v>0.0150578084247778</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -1121,16 +1121,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04309639930725098</v>
+        <v>0.05825357437133789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003511896141826603</v>
+        <v>0.004978310741335593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001968050003051758</v>
+        <v>0.002566766738891601</v>
       </c>
       <c r="E6" t="n">
-        <v>7.649226044075509e-05</v>
+        <v>0.0004821239032830714</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1141,28 +1141,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="J6" t="n">
-        <v>0.891156462585034</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9246575342465754</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8992172211350293</v>
+        <v>0.9161334804191947</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02068562821124548</v>
+        <v>0.01730222486292862</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1170,16 +1170,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2073452472686768</v>
+        <v>0.2574804306030273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02432876247913626</v>
+        <v>0.02164760455007652</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002055263519287109</v>
+        <v>0.002881336212158203</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002176188145831099</v>
+        <v>0.0006555919516506544</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1190,28 +1190,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8435374149659864</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="J7" t="n">
-        <v>0.891156462585034</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8767123287671232</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8773832820799552</v>
+        <v>0.9093767236624378</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01875680816558428</v>
+        <v>0.01500676230584993</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1310,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006236696243286132</v>
+        <v>0.009392738342285156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004614421105444153</v>
+        <v>0.003222898841227826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002086544036865234</v>
+        <v>0.002395868301391602</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003776746140324338</v>
+        <v>0.0002021060105755826</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -1330,28 +1330,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1359,16 +1359,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006829833984375</v>
+        <v>0.01036281585693359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005770777299827899</v>
+        <v>0.003222170753776727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001877927780151367</v>
+        <v>0.002723932266235352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000141340244682337</v>
+        <v>0.0007538598973115962</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -1379,28 +1379,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1408,16 +1408,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009223222732543945</v>
+        <v>0.01313519477844238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007520109461765684</v>
+        <v>0.002666810969204517</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002026844024658203</v>
+        <v>0.002425146102905273</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002793644569146385</v>
+        <v>0.0004255762260490795</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1428,28 +1428,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1457,16 +1457,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01836400032043457</v>
+        <v>0.02674059867858887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008072233486113</v>
+        <v>0.004607718299851325</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002100801467895508</v>
+        <v>0.00258183479309082</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003285694732668174</v>
+        <v>0.0006622910747402418</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9319727891156463</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="L5" t="n">
-        <v>0.910958904109589</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="M5" t="n">
-        <v>0.914164569937564</v>
+        <v>0.9174664460378745</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01021657988789093</v>
+        <v>0.009849528887444654</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -1506,16 +1506,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03931436538696289</v>
+        <v>0.05740313529968262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003959699803449206</v>
+        <v>0.007203904003996596</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001941442489624023</v>
+        <v>0.002297401428222656</v>
       </c>
       <c r="E6" t="n">
-        <v>2.505097491562595e-05</v>
+        <v>0.0001432436601348148</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1526,28 +1526,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="L6" t="n">
-        <v>0.910958904109589</v>
+        <v>0.9319727891156463</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8978380393253191</v>
+        <v>0.916124287552859</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01711534837185057</v>
+        <v>0.01507140647644868</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1555,16 +1555,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.19544997215271</v>
+        <v>0.2663852214813233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02036890845871893</v>
+        <v>0.02525406844592128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002159404754638672</v>
+        <v>0.002291727066040039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002210557819984551</v>
+        <v>7.142399886984008e-05</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1575,25 +1575,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8435374149659864</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="J7" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.9047619047619048</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.8707482993197279</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8698630136986302</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.8773739632839437</v>
+        <v>0.9052767052767052</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02199580153392392</v>
+        <v>0.01208959440496</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005951881408691406</v>
+        <v>0.008755731582641601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007147559327042231</v>
+        <v>0.002240857905691263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002080106735229492</v>
+        <v>0.002957963943481445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003735860925914137</v>
+        <v>0.0007664034050706448</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -1715,28 +1715,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1744,16 +1744,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006430864334106445</v>
+        <v>0.008804082870483398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003220104313196003</v>
+        <v>0.00213936174435548</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001937437057495117</v>
+        <v>0.002511405944824219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003494312148597954</v>
+        <v>0.0007055989143951404</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1793,16 +1793,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009064149856567384</v>
+        <v>0.01369233131408691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006024716330375302</v>
+        <v>0.003162723083491137</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001929330825805664</v>
+        <v>0.00263819694519043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001625549971540233</v>
+        <v>0.0006436147339079811</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1813,28 +1813,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1842,16 +1842,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01930665969848633</v>
+        <v>0.02660903930664062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001869688645733953</v>
+        <v>0.005404204296228207</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002013731002807617</v>
+        <v>0.002568769454956055</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002270822209239653</v>
+        <v>0.0006389745205707413</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1862,28 +1862,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="L5" t="n">
-        <v>0.910958904109589</v>
+        <v>0.9319727891156463</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9087223930668158</v>
+        <v>0.920178341606913</v>
       </c>
       <c r="N5" t="n">
-        <v>0.006894019844630209</v>
+        <v>0.01229611079884652</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1891,16 +1891,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04165787696838379</v>
+        <v>0.05424213409423828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002689352519108029</v>
+        <v>0.006734917240130138</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001923847198486328</v>
+        <v>0.002306795120239258</v>
       </c>
       <c r="E6" t="n">
-        <v>1.271770381357377e-05</v>
+        <v>9.466011484901004e-05</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1911,28 +1911,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.910958904109589</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9046407604137545</v>
+        <v>0.9107096892811178</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01421370268084758</v>
+        <v>0.01226504082302898</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1940,16 +1940,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1909023761749268</v>
+        <v>0.2401629447937012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03073855293259027</v>
+        <v>0.03757593283403114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001922369003295898</v>
+        <v>0.002256965637207031</v>
       </c>
       <c r="E7" t="n">
-        <v>4.688693974221856e-05</v>
+        <v>5.474717738946193e-05</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1960,25 +1960,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8299319727891157</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8843537414965986</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.863013698630137</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8773646444879322</v>
+        <v>0.8971594043022615</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02830503562809</v>
+        <v>0.008947289814972711</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2080,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007350492477416992</v>
+        <v>0.01163091659545898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001107581379747207</v>
+        <v>0.005209719710937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002908229827880859</v>
+        <v>0.002882575988769531</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001816100451379652</v>
+        <v>0.0008200708828887544</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2129,16 +2129,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008858823776245117</v>
+        <v>0.01091022491455078</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002009471487538488</v>
+        <v>0.002608013431189028</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002083444595336914</v>
+        <v>0.002364826202392578</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003885956210953759</v>
+        <v>0.0003339758537472288</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2178,16 +2178,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01265397071838379</v>
+        <v>0.01656727790832519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001499468534327694</v>
+        <v>0.002982481997667731</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001863288879394531</v>
+        <v>0.002554082870483399</v>
       </c>
       <c r="E4" t="n">
-        <v>5.960624692670957e-05</v>
+        <v>0.000643472065223622</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2227,16 +2227,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02400283813476562</v>
+        <v>0.03051161766052246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00143481698129227</v>
+        <v>0.004990060761004001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001960086822509766</v>
+        <v>0.002507925033569336</v>
       </c>
       <c r="E5" t="n">
-        <v>8.867266153001708e-05</v>
+        <v>0.0005972609353958768</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -2276,16 +2276,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04490385055541992</v>
+        <v>0.06920018196105956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005516596393172916</v>
+        <v>0.005487276286667849</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001978302001953125</v>
+        <v>0.002542781829833985</v>
       </c>
       <c r="E6" t="n">
-        <v>9.845233606723272e-05</v>
+        <v>0.0005820802850244802</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -2299,10 +2299,10 @@
         <v>0.9326923076923077</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9182692307692307</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9468599033816425</v>
+        <v>0.9516908212560387</v>
       </c>
       <c r="K6" t="n">
         <v>0.9130434782608695</v>
@@ -2311,10 +2311,10 @@
         <v>0.9033816425120773</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9228493125232256</v>
+        <v>0.9228539576365664</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01529388595083606</v>
+        <v>0.01727421161775646</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -2325,16 +2325,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2136074066162109</v>
+        <v>0.3025214195251465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01769030237520481</v>
+        <v>0.02340008044699961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002054834365844727</v>
+        <v>0.00226902961730957</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002012750261296519</v>
+        <v>8.711920582548162e-05</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -2348,10 +2348,10 @@
         <v>0.9278846153846154</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8990384615384616</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9420289855072463</v>
+        <v>0.9371980676328503</v>
       </c>
       <c r="K7" t="n">
         <v>0.9082125603864735</v>
@@ -2360,10 +2360,10 @@
         <v>0.8985507246376812</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9151430694908956</v>
+        <v>0.9151384243775549</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0171341514717018</v>
+        <v>0.01483056299792347</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2465,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006877803802490234</v>
+        <v>0.01003818511962891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000956597076602959</v>
+        <v>0.004026670572491631</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00222325325012207</v>
+        <v>0.002773189544677734</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0006906965415035699</v>
+        <v>0.0006848656680415131</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2494,19 +2494,19 @@
         <v>0.9241379310344827</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9213793103448275</v>
+        <v>0.9268965517241379</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003378606541769908</v>
+        <v>0.003378606541769907</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2514,16 +2514,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006851673126220703</v>
+        <v>0.009777069091796875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000889680541227193</v>
+        <v>0.002114658089185723</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001974344253540039</v>
+        <v>0.002586603164672852</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003374766604118136</v>
+        <v>0.0004920092356601235</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2543,19 +2543,19 @@
         <v>0.9241379310344827</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9213793103448275</v>
+        <v>0.9268965517241379</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003378606541769908</v>
+        <v>0.003378606541769907</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2563,16 +2563,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009810400009155274</v>
+        <v>0.01148366928100586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007382475733369118</v>
+        <v>0.001474910293291669</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002135801315307617</v>
+        <v>0.002717733383178711</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005639837403313112</v>
+        <v>0.00063514301367471</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2592,19 +2592,19 @@
         <v>0.9241379310344827</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9213793103448275</v>
+        <v>0.9268965517241379</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003378606541769908</v>
+        <v>0.003378606541769907</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2612,16 +2612,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0193514347076416</v>
+        <v>0.02333760261535645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002138405779033612</v>
+        <v>0.003927960033999805</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001951265335083008</v>
+        <v>0.002824592590332031</v>
       </c>
       <c r="E5" t="n">
-        <v>7.952657473765075e-05</v>
+        <v>0.0007439495675474676</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -2632,25 +2632,25 @@
         </is>
       </c>
       <c r="H5" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.9241379310344827</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9379310344827586</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.9310344827586207</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.9172413793103448</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9103448275862069</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9241379310344827</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.9213793103448275</v>
+        <v>0.9296551724137931</v>
       </c>
       <c r="N5" t="n">
-        <v>0.007033130363576235</v>
+        <v>0.005160906740377861</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -2661,16 +2661,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03956737518310547</v>
+        <v>0.04947991371154785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004663129817214913</v>
+        <v>0.004489576021039901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001945018768310547</v>
+        <v>0.002254819869995117</v>
       </c>
       <c r="E6" t="n">
-        <v>2.804921374599779e-05</v>
+        <v>5.296576995953772e-05</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -2681,25 +2681,25 @@
         </is>
       </c>
       <c r="H6" t="n">
+        <v>0.9103448275862069</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.9172413793103448</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.9103448275862069</v>
-      </c>
       <c r="J6" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9172413793103448</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.9241379310344827</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.903448275862069</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.896551724137931</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.9103448275862067</v>
+        <v>0.9172413793103447</v>
       </c>
       <c r="N6" t="n">
-        <v>0.009753196981883386</v>
+        <v>0.004361762289887394</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -2710,16 +2710,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1780212879180908</v>
+        <v>0.2288444042205811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0151969157448847</v>
+        <v>0.01032515121840414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002125453948974609</v>
+        <v>0.002560281753540039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002239608955513243</v>
+        <v>0.0005541216596714742</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -2730,25 +2730,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9103448275862069</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.9172413793103448</v>
       </c>
       <c r="J7" t="n">
+        <v>0.903448275862069</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.9241379310344827</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.8758620689655172</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8689655172413793</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.8882758620689654</v>
+        <v>0.9075862068965517</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02444144158161291</v>
+        <v>0.01120557021329095</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2850,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006343030929565429</v>
+        <v>0.008931684494018554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007104131896706342</v>
+        <v>0.002669900284434121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001815605163574219</v>
+        <v>0.002488613128662109</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001055198074737604</v>
+        <v>0.0006209218505603561</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K2" t="n">
         <v>0.9354838709677419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9391193036354327</v>
+        <v>0.9263184843830004</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006263565256886062</v>
+        <v>0.007498090121038595</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2899,16 +2899,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006210613250732422</v>
+        <v>0.008226823806762696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005992772735890272</v>
+        <v>0.001507215303794276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001780509948730469</v>
+        <v>0.00276799201965332</v>
       </c>
       <c r="E3" t="n">
-        <v>9.234675168033226e-05</v>
+        <v>0.0007737608135719137</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2919,28 +2919,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K3" t="n">
         <v>0.9354838709677419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9391193036354327</v>
+        <v>0.9263184843830004</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006263565256886062</v>
+        <v>0.007498090121038595</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2948,16 +2948,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007700014114379883</v>
+        <v>0.0110234260559082</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008555182933443783</v>
+        <v>0.002014903466247497</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001854228973388672</v>
+        <v>0.002448940277099609</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000173905747574158</v>
+        <v>0.0005796018444774125</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2968,28 +2968,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K4" t="n">
         <v>0.9354838709677419</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9391193036354327</v>
+        <v>0.9263184843830004</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006263565256886062</v>
+        <v>0.007498090121038595</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2997,16 +2997,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01176810264587402</v>
+        <v>0.01778221130371094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005370218743500207</v>
+        <v>0.002729698020121325</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001980733871459961</v>
+        <v>0.002515316009521484</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003449474542311457</v>
+        <v>0.0006216028600613571</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3017,28 +3017,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9423451100870455</v>
+        <v>0.9230926779313876</v>
       </c>
       <c r="N5" t="n">
-        <v>0.007576354959520959</v>
+        <v>0.01194869912567012</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3046,16 +3046,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02226300239562988</v>
+        <v>0.03607416152954102</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001392286584254709</v>
+        <v>0.00195712106474949</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00223236083984375</v>
+        <v>0.002663469314575195</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003289626047850602</v>
+        <v>0.0005770209702308873</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3066,25 +3066,25 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J6" t="n">
+        <v>0.9193548387096774</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.9032258064516129</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.9516129032258065</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9167434715821813</v>
+        <v>0.900563236047107</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03529217208173495</v>
+        <v>0.02396433710616017</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -3095,16 +3095,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1265914916992187</v>
+        <v>0.1649096012115479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0262257256546676</v>
+        <v>0.03075349182677769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001921749114990234</v>
+        <v>0.002492332458496094</v>
       </c>
       <c r="E7" t="n">
-        <v>1.60812226992264e-05</v>
+        <v>0.0006089996027334877</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3115,25 +3115,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7936507936507936</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8870967741935484</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8815668202764977</v>
+        <v>0.8461341525857655</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04522023431575665</v>
+        <v>0.02964753749958205</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -3235,16 +3235,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006725263595581055</v>
+        <v>0.008993196487426757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001017045117367634</v>
+        <v>0.002259435855737352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001811552047729492</v>
+        <v>0.002819299697875977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001123925918141803</v>
+        <v>0.0008442234297809711</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -3255,28 +3255,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3284,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006534290313720703</v>
+        <v>0.009302186965942382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004920564495174298</v>
+        <v>0.002781910218404337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001720762252807617</v>
+        <v>0.002441978454589844</v>
       </c>
       <c r="E3" t="n">
-        <v>5.847987363210604e-05</v>
+        <v>0.0005380586333568607</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -3304,28 +3304,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3333,16 +3333,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009373760223388672</v>
+        <v>0.01412997245788574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008338379901883456</v>
+        <v>0.004366873457171799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001941061019897461</v>
+        <v>0.002201986312866211</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002057560128366301</v>
+        <v>6.937864309167857e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -3353,28 +3353,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3382,16 +3382,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0199866771697998</v>
+        <v>0.02563939094543457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002175870111159867</v>
+        <v>0.003722900087997247</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002153205871582031</v>
+        <v>0.002744054794311523</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003537754593978751</v>
+        <v>0.0006781705503214504</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3402,25 +3402,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="J5" t="n">
+        <v>0.9324324324324325</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9324324324324325</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.914164569937564</v>
+        <v>0.9215021143592572</v>
       </c>
       <c r="N5" t="n">
-        <v>0.006988997607468844</v>
+        <v>0.0110835015896001</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -3431,16 +3431,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04501471519470215</v>
+        <v>0.05826101303100586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008363018394356913</v>
+        <v>0.003256819623731537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002214288711547851</v>
+        <v>0.002625179290771484</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004282198552897893</v>
+        <v>0.0006047914879213996</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3451,28 +3451,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.910958904109589</v>
+        <v>0.9319727891156463</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8978380393253191</v>
+        <v>0.9147729362015076</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01866728600890499</v>
+        <v>0.01240374211032551</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3480,16 +3480,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2052701950073242</v>
+        <v>0.244823694229126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01669657189861988</v>
+        <v>0.02468574297361398</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002255916595458984</v>
+        <v>0.002231502532958984</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004339063819824005</v>
+        <v>5.01710193144138e-05</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8767123287671232</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8841860031683908</v>
+        <v>0.9079886008457436</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02156768046830056</v>
+        <v>0.01320600604727989</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -3620,16 +3620,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005798244476318359</v>
+        <v>0.01069717407226562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005647358351679452</v>
+        <v>0.003236371290656895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001876163482666016</v>
+        <v>0.003075408935546875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001804892199970746</v>
+        <v>0.0008144421571757003</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -3640,28 +3640,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3669,16 +3669,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007086753845214844</v>
+        <v>0.009639787673950195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000348344442870092</v>
+        <v>0.001867593269116896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001848602294921875</v>
+        <v>0.002494335174560547</v>
       </c>
       <c r="E3" t="n">
-        <v>5.725990366370559e-05</v>
+        <v>0.0006173735926176828</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -3689,28 +3689,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3718,16 +3718,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01096982955932617</v>
+        <v>0.01382670402526856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001376455897016698</v>
+        <v>0.003639333715613572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002263832092285156</v>
+        <v>0.002392005920410156</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003316559743269902</v>
+        <v>0.0003295654559936396</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -3738,28 +3738,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.9106913035484464</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.005029934590949916</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3767,16 +3767,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02259888648986817</v>
+        <v>0.0250542163848877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006891650487020977</v>
+        <v>0.003658626096245095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002144241333007813</v>
+        <v>0.002480030059814453</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000400907107085031</v>
+        <v>0.0005602838637980642</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3787,25 +3787,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9178082191780822</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9141738887335755</v>
+        <v>0.9242415885273028</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00536231734037074</v>
+        <v>0.009807129733166813</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -3816,16 +3816,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04073061943054199</v>
+        <v>0.07194867134094238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003808364784626571</v>
+        <v>0.01013287645370071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00208282470703125</v>
+        <v>0.002820158004760742</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001740217192530028</v>
+        <v>0.0005130049768707637</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3836,28 +3836,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9178082191780822</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8992079023390177</v>
+        <v>0.9120794263651406</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01561521037105628</v>
+        <v>0.01465241388235822</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3865,16 +3865,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1918136119842529</v>
+        <v>0.2573921680450439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01075010515738395</v>
+        <v>0.03347785039989151</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001987981796264649</v>
+        <v>0.002305173873901367</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001160062978314879</v>
+        <v>9.710125779942449e-05</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3885,25 +3885,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8503401360544217</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8835616438356164</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="M7" t="n">
-        <v>0.880113689311341</v>
+        <v>0.8998896856039712</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01801658531296427</v>
+        <v>0.01144594923852574</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -4005,16 +4005,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006471872329711914</v>
+        <v>0.008924961090087891</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007511679031525924</v>
+        <v>0.001796828760858924</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001834392547607422</v>
+        <v>0.002683162689208984</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001228540192694436</v>
+        <v>0.0007234437213585074</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -4025,28 +4025,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4054,16 +4054,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006957721710205078</v>
+        <v>0.008781623840332032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007510039070765655</v>
+        <v>0.001733339959949697</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001760244369506836</v>
+        <v>0.002489519119262695</v>
       </c>
       <c r="E3" t="n">
-        <v>8.441862885237233e-05</v>
+        <v>0.0007053046588915569</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -4074,28 +4074,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4103,16 +4103,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008922529220581055</v>
+        <v>0.01421103477478027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006003575704346715</v>
+        <v>0.002777306492829726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001922988891601563</v>
+        <v>0.002769184112548828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001995090658756448</v>
+        <v>0.0006387397999660731</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -4123,28 +4123,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4152,16 +4152,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01891770362854004</v>
+        <v>0.02595639228820801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001331904095629943</v>
+        <v>0.002610085305624486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002037668228149414</v>
+        <v>0.00267486572265625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001410887423951834</v>
+        <v>0.0005594328934427745</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -4172,25 +4172,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9319727891156463</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9315068493150684</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="M5" t="n">
-        <v>0.919634703196347</v>
+        <v>0.9228902371759515</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01237914979285851</v>
+        <v>0.009019256041523118</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -4201,16 +4201,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03953051567077637</v>
+        <v>0.05488142967224121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003917180108760859</v>
+        <v>0.007792367646185789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001926040649414062</v>
+        <v>0.00280299186706543</v>
       </c>
       <c r="E6" t="n">
-        <v>6.843236236919494e-06</v>
+        <v>0.0005442431952829138</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -4221,28 +4221,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8639455782312925</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9246575342465754</v>
+        <v>0.9319727891156463</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9032988537880906</v>
+        <v>0.9188269902555616</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02242264986729</v>
+        <v>0.01119731120775924</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4250,16 +4250,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1831723213195801</v>
+        <v>0.2720962047576904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01696067017624192</v>
+        <v>0.03059334158155058</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002234649658203125</v>
+        <v>0.002516365051269531</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0005671670700125494</v>
+        <v>0.0005481557165062976</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -4270,25 +4270,25 @@
         </is>
       </c>
       <c r="H7" t="n">
+        <v>0.8851351351351351</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8986486486486487</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.9183673469387755</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.8503401360544217</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8979591836734694</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8775510204081632</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8767123287671232</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.8841860031683906</v>
+        <v>0.9052950910093767</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02281879176974902</v>
+        <v>0.01270514658053456</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -4390,16 +4390,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006716632843017578</v>
+        <v>0.008212852478027343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001062386474639526</v>
+        <v>0.002193322107429912</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001779603958129883</v>
+        <v>0.002249574661254883</v>
       </c>
       <c r="E2" t="n">
-        <v>8.113905135816643e-05</v>
+        <v>0.0001238242998116642</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -4410,28 +4410,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4439,16 +4439,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006368541717529297</v>
+        <v>0.007912015914916993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000294848145582499</v>
+        <v>0.0002484762972613678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001977300643920898</v>
+        <v>0.002147483825683594</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003513356308667149</v>
+        <v>3.16626336135163e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -4459,28 +4459,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4488,16 +4488,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01002335548400879</v>
+        <v>0.01197161674499512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009268541566025237</v>
+        <v>0.0008107584475789899</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001867532730102539</v>
+        <v>0.002191686630249024</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001094776993487657</v>
+        <v>5.011932820027796e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -4508,28 +4508,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4537,16 +4537,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01949777603149414</v>
+        <v>0.02109146118164062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001260839236357818</v>
+        <v>0.001402818191794405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001882743835449219</v>
+        <v>0.002170372009277344</v>
       </c>
       <c r="E5" t="n">
-        <v>4.218146888614646e-05</v>
+        <v>2.837818138344769e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -4557,25 +4557,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9251700680272109</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9256756756756757</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9315068493150684</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="M5" t="n">
-        <v>0.91827415897866</v>
+        <v>0.9228994300422872</v>
       </c>
       <c r="N5" t="n">
-        <v>0.009489627895331991</v>
+        <v>0.0150578084247778</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -4586,16 +4586,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03887233734130859</v>
+        <v>0.04419417381286621</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004192935117872011</v>
+        <v>0.003654168254168999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001993322372436524</v>
+        <v>0.002238321304321289</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001352099151986387</v>
+        <v>5.910903878885877e-05</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -4606,28 +4606,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9115646258503401</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9246575342465754</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9019383095704034</v>
+        <v>0.9201875344732487</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01791899554748604</v>
+        <v>0.01432054437877454</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4635,16 +4635,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1880222320556641</v>
+        <v>0.2554596424102783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01821527493574167</v>
+        <v>0.006932395501936073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002116155624389648</v>
+        <v>0.002804183959960938</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002443608486566329</v>
+        <v>0.0005964764493551529</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -4655,25 +4655,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.8851351351351351</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.8986486486486487</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8767123287671232</v>
+        <v>0.9319727891156463</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8733016494268941</v>
+        <v>0.9053134767420483</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02173982239099382</v>
+        <v>0.01583432199528087</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -4775,16 +4775,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006438827514648438</v>
+        <v>0.008262729644775391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008440709705324532</v>
+        <v>0.001524571824528419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001778936386108398</v>
+        <v>0.002210235595703125</v>
       </c>
       <c r="E2" t="n">
-        <v>8.244921242346388e-05</v>
+        <v>8.023224105845114e-05</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -4795,25 +4795,25 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -4824,16 +4824,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006488466262817382</v>
+        <v>0.008185243606567383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000532100138473596</v>
+        <v>0.0005601474231088993</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001889610290527344</v>
+        <v>0.002190971374511719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002180132965771995</v>
+        <v>6.881118720132401e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -4844,25 +4844,25 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -4873,16 +4873,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008947372436523438</v>
+        <v>0.01481881141662598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005263454823155187</v>
+        <v>0.004385083310375858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00187225341796875</v>
+        <v>0.00227665901184082</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002251470553223984</v>
+        <v>8.918206219601608e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -4893,25 +4893,25 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9115646258503401</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.910958904109589</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9100829372845028</v>
+        <v>0.909339952197095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002670839119213175</v>
+        <v>0.003219944966898729</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
@@ -4922,16 +4922,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01837310791015625</v>
+        <v>0.0267148494720459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001531410818602292</v>
+        <v>0.004338845196092243</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002058172225952149</v>
+        <v>0.002471208572387695</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003432976726801296</v>
+        <v>0.0005488524323587483</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -4942,25 +4942,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="J5" t="n">
+        <v>0.9324324324324325</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9121621621621622</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.9047619047619048</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9246575342465754</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.9141832075295871</v>
+        <v>0.9133848133848135</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008028044058747304</v>
+        <v>0.0100381975297221</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -4971,16 +4971,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04298458099365234</v>
+        <v>0.05750069618225098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002516588497549197</v>
+        <v>0.002478667498079502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002139425277709961</v>
+        <v>0.002528476715087891</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004045274273453442</v>
+        <v>0.000598543399657591</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -4991,25 +4991,25 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8775510204081632</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9121621621621622</v>
       </c>
       <c r="K6" t="n">
+        <v>0.9054054054054054</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.8979591836734694</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.9178082191780822</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.9032895349920791</v>
+        <v>0.9039161610590181</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01504117185925477</v>
+        <v>0.007978465337203564</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -5020,16 +5020,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.208985185623169</v>
+        <v>0.2351936340332031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02177172543993568</v>
+        <v>0.0213825782308092</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002032661437988281</v>
+        <v>0.002553796768188476</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001217906512571273</v>
+        <v>0.0005749314936215901</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -5040,25 +5040,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8367346938775511</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9054054054054054</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8707482993197279</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8767123287671232</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8787438262976422</v>
+        <v>0.8998896856039712</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02524560735852818</v>
+        <v>0.01061829784960454</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
